--- a/PrepSheet_Autofill_Template_Update032520.xlsx
+++ b/PrepSheet_Autofill_Template_Update032520.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Library/Containers/com.microsoft.Excel/Data/Desktop/newmetadatatemplates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD080F1C-E797-DA48-A51D-F6B0C8CF61C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED17F8-22BD-1947-B21C-7EB812073118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="11" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Objs.Directions" sheetId="17" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="511">
   <si>
     <t>Genomic #</t>
   </si>
@@ -1573,6 +1573,9 @@
   </si>
   <si>
     <t>Total Read Count</t>
+  </si>
+  <si>
+    <t>TRIzol</t>
   </si>
 </sst>
 </file>
@@ -7339,7 +7342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4958B5-37FB-2944-8284-DDBDEBA5917C}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -9433,8 +9436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E0446-305A-6048-A194-88D9DB83BCA9}">
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4:AF81"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9630,7 +9633,9 @@
       <c r="H4"/>
       <c r="I4" s="97"/>
       <c r="N4" s="102"/>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>510</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="6"/>
@@ -12231,7 +12236,7 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="S114" s="7">
-        <f t="shared" ref="S69:S132" si="0">B114</f>
+        <f t="shared" ref="S114:S132" si="0">B114</f>
         <v>0</v>
       </c>
       <c r="V114" s="94"/>
@@ -13041,8 +13046,8 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P29" xr:uid="{368A966B-0DD8-B54F-B593-88EA54499CE6}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P29" xr:uid="{368A966B-0DD8-B54F-B593-88EA54499CE6}">
       <formula1>"Trizol, DirectZol"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R43" xr:uid="{13E8663D-946A-6345-827C-801184D2D969}">
@@ -13050,6 +13055,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O88 J4:J43 W4:W43" xr:uid="{8AA5E0A9-BBDB-2A41-9A8D-28D0C42A3EAD}">
       <formula1>"J.PLAGGENBERG,H.BROWN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{4E1384DF-1F81-0A4C-AF85-FE834BF9E9C4}">
+      <formula1>"TRIzol, DirectZol"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13072,7 +13080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25A128A-CE78-D14F-B4DE-F0406C9D1290}">
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -18957,9 +18965,9 @@
         <f>VLOOKUP(A2,Induction!B4:S4,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="28" t="str">
         <f>VLOOKUP(A2,Induction!B4:P4,15,FALSE)</f>
-        <v>0</v>
+        <v>TRIzol</v>
       </c>
       <c r="I2" s="21">
         <f>VLOOKUP(A2,Induction!B4:Q4,16,FALSE)</f>

--- a/PrepSheet_Autofill_Template_Update032520.xlsx
+++ b/PrepSheet_Autofill_Template_Update032520.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED17F8-22BD-1947-B21C-7EB812073118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD1B90-CB3A-6B46-B190-79F2BA696C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Objs.Directions" sheetId="17" r:id="rId1"/>
@@ -1870,7 +1870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2051,12 +2051,8 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -2064,17 +2060,8 @@
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2082,7 +2069,6 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2098,6 +2084,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2847,7 +2843,7 @@
         <f>VLOOKUP(A2,Prep!A10:T10,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="114"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="40">
@@ -2889,7 +2885,7 @@
         <f>VLOOKUP(A3,Prep!A11:T11,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="40">
@@ -2931,7 +2927,7 @@
         <f>VLOOKUP(A4,Prep!A12:T12,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="114"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
@@ -2973,7 +2969,7 @@
         <f>VLOOKUP(A5,Prep!A13:T13,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="114"/>
+      <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="40">
@@ -3015,7 +3011,7 @@
         <f>VLOOKUP(A6,Prep!A14:T14,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="114"/>
+      <c r="M6" s="109"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
@@ -3057,7 +3053,7 @@
         <f>VLOOKUP(A7,Prep!A15:T15,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="114"/>
+      <c r="M7" s="109"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="40">
@@ -3099,7 +3095,7 @@
         <f>VLOOKUP(A8,Prep!A16:T16,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="114"/>
+      <c r="M8" s="109"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="40">
@@ -3141,7 +3137,7 @@
         <f>VLOOKUP(A9,Prep!A17:T17,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="114"/>
+      <c r="M9" s="109"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="40">
@@ -3183,7 +3179,7 @@
         <f>VLOOKUP(A10,Prep!A18:T18,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="114"/>
+      <c r="M10" s="109"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
@@ -3225,7 +3221,7 @@
         <f>VLOOKUP(A11,Prep!A19:T19,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="114"/>
+      <c r="M11" s="109"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
@@ -3267,7 +3263,7 @@
         <f>VLOOKUP(A12,Prep!A20:T20,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="114"/>
+      <c r="M12" s="109"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
@@ -3309,7 +3305,7 @@
         <f>VLOOKUP(A13,Prep!A21:T21,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="114"/>
+      <c r="M13" s="109"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="40">
@@ -3351,7 +3347,7 @@
         <f>VLOOKUP(A14,Prep!A22:T22,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="114"/>
+      <c r="M14" s="109"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="40">
@@ -3393,7 +3389,7 @@
         <f>VLOOKUP(A15,Prep!A23:T23,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="114"/>
+      <c r="M15" s="109"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="40">
@@ -3435,7 +3431,7 @@
         <f>VLOOKUP(A16,Prep!A24:T24,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="114"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="40">
@@ -3477,7 +3473,7 @@
         <f>VLOOKUP(A17,Prep!A25:T25,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="114"/>
+      <c r="M17" s="109"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="40">
@@ -3519,7 +3515,7 @@
         <f>VLOOKUP(A18,Prep!A26:T26,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="114"/>
+      <c r="M18" s="109"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="40">
@@ -3561,7 +3557,7 @@
         <f>VLOOKUP(A19,Prep!A27:T27,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="114"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="40">
@@ -3603,7 +3599,7 @@
         <f>VLOOKUP(A20,Prep!A28:T28,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="114"/>
+      <c r="M20" s="109"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="40">
@@ -3645,7 +3641,7 @@
         <f>VLOOKUP(A21,Prep!A29:T29,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="114"/>
+      <c r="M21" s="109"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="40">
@@ -3688,7 +3684,7 @@
         <f>VLOOKUP(A22,Prep!A30:T30,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="114"/>
+      <c r="M22" s="109"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="40">
@@ -3731,7 +3727,7 @@
         <f>VLOOKUP(A23,Prep!A31:T31,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="114"/>
+      <c r="M23" s="109"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="40">
@@ -3774,7 +3770,7 @@
         <f>VLOOKUP(A24,Prep!A32:T32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="114"/>
+      <c r="M24" s="109"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="40">
@@ -3817,7 +3813,7 @@
         <f>VLOOKUP(A25,Prep!A33:T33,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="114"/>
+      <c r="M25" s="109"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="40">
@@ -3860,7 +3856,7 @@
         <f>VLOOKUP(A26,Prep!A34:T34,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="109"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="40">
@@ -3902,7 +3898,7 @@
         <f>VLOOKUP(A27,Prep!A35:T35,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="114"/>
+      <c r="M27" s="109"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="40">
@@ -3944,7 +3940,7 @@
         <f>VLOOKUP(A28,Prep!A36:T36,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="114"/>
+      <c r="M28" s="109"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="40">
@@ -3987,7 +3983,7 @@
         <f>VLOOKUP(A29,Prep!A37:T37,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="114"/>
+      <c r="M29" s="109"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="40">
@@ -4030,7 +4026,7 @@
         <f>VLOOKUP(A30,Prep!A38:T38,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="114"/>
+      <c r="M30" s="109"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="40">
@@ -4073,7 +4069,7 @@
         <f>VLOOKUP(A31,Prep!A39:T39,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="114"/>
+      <c r="M31" s="109"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="40">
@@ -4116,7 +4112,7 @@
         <f>VLOOKUP(A32,Prep!A40:T40,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="114"/>
+      <c r="M32" s="109"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="40">
@@ -4159,7 +4155,7 @@
         <f>VLOOKUP(A33,Prep!A41:T41,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="114"/>
+      <c r="M33" s="109"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="40">
@@ -4202,7 +4198,7 @@
         <f>VLOOKUP(A34,Prep!A42:T42,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="114"/>
+      <c r="M34" s="109"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="40">
@@ -4244,7 +4240,7 @@
         <f>VLOOKUP(A35,Prep!A43:T43,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="114"/>
+      <c r="M35" s="109"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="40">
@@ -4287,7 +4283,7 @@
         <f>VLOOKUP(A36,Prep!A44:T44,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="114"/>
+      <c r="M36" s="109"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="40">
@@ -4330,7 +4326,7 @@
         <f>VLOOKUP(A37,Prep!A45:T45,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="114"/>
+      <c r="M37" s="109"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="40">
@@ -4372,7 +4368,7 @@
         <f>VLOOKUP(A38,Prep!A46:T46,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M38" s="114"/>
+      <c r="M38" s="109"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="40">
@@ -4415,7 +4411,7 @@
         <f>VLOOKUP(A39,Prep!A47:T47,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="114"/>
+      <c r="M39" s="109"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="40">
@@ -4458,7 +4454,7 @@
         <f>VLOOKUP(A40,Prep!A48:T48,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="114"/>
+      <c r="M40" s="109"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="40">
@@ -4501,7 +4497,7 @@
         <f>VLOOKUP(A41,Prep!A49:T49,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="114"/>
+      <c r="M41" s="109"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="40">
@@ -9436,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E0446-305A-6048-A194-88D9DB83BCA9}">
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="P1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9484,47 +9480,47 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="119" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="129" t="s">
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="121" t="s">
         <v>414</v>
       </c>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="129" t="s">
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="129" t="s">
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="121" t="s">
         <v>416</v>
       </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
     </row>
     <row r="3" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -9642,14 +9638,14 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4" s="94"/>
-      <c r="X4" s="8"/>
+      <c r="X4" s="94"/>
       <c r="Y4"/>
-      <c r="Z4" s="96"/>
+      <c r="Z4" s="94"/>
       <c r="AA4" s="52"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="96"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="52"/>
-      <c r="AE4" s="126"/>
+      <c r="AE4" s="118"/>
     </row>
     <row r="5" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -9671,14 +9667,14 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5" s="94"/>
-      <c r="X5" s="8"/>
+      <c r="X5" s="94"/>
       <c r="Y5"/>
-      <c r="Z5" s="96"/>
+      <c r="Z5" s="94"/>
       <c r="AA5" s="52"/>
       <c r="AB5" s="21"/>
-      <c r="AC5" s="96"/>
+      <c r="AC5" s="94"/>
       <c r="AD5" s="52"/>
-      <c r="AE5" s="126"/>
+      <c r="AE5" s="118"/>
     </row>
     <row r="6" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -9700,14 +9696,14 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6" s="94"/>
-      <c r="X6" s="8"/>
+      <c r="X6" s="94"/>
       <c r="Y6"/>
-      <c r="Z6" s="96"/>
+      <c r="Z6" s="94"/>
       <c r="AA6" s="52"/>
       <c r="AB6" s="21"/>
-      <c r="AC6" s="96"/>
+      <c r="AC6" s="94"/>
       <c r="AD6" s="52"/>
-      <c r="AE6" s="126"/>
+      <c r="AE6" s="118"/>
     </row>
     <row r="7" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -9729,14 +9725,14 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7" s="94"/>
-      <c r="X7" s="8"/>
+      <c r="X7" s="94"/>
       <c r="Y7"/>
-      <c r="Z7" s="96"/>
+      <c r="Z7" s="94"/>
       <c r="AA7" s="52"/>
       <c r="AB7" s="21"/>
-      <c r="AC7" s="96"/>
+      <c r="AC7" s="94"/>
       <c r="AD7" s="52"/>
-      <c r="AE7" s="126"/>
+      <c r="AE7" s="118"/>
     </row>
     <row r="8" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -9758,14 +9754,14 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8" s="94"/>
-      <c r="X8" s="8"/>
+      <c r="X8" s="94"/>
       <c r="Y8"/>
-      <c r="Z8" s="96"/>
+      <c r="Z8" s="94"/>
       <c r="AA8" s="52"/>
       <c r="AB8" s="21"/>
-      <c r="AC8" s="96"/>
+      <c r="AC8" s="94"/>
       <c r="AD8" s="52"/>
-      <c r="AE8" s="126"/>
+      <c r="AE8" s="118"/>
     </row>
     <row r="9" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -9791,14 +9787,14 @@
       <c r="U9"/>
       <c r="V9" s="94"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="8"/>
+      <c r="X9" s="94"/>
       <c r="Y9"/>
-      <c r="Z9" s="96"/>
+      <c r="Z9" s="94"/>
       <c r="AA9" s="52"/>
       <c r="AB9" s="21"/>
-      <c r="AC9" s="96"/>
+      <c r="AC9" s="94"/>
       <c r="AD9" s="52"/>
-      <c r="AE9" s="126"/>
+      <c r="AE9" s="118"/>
     </row>
     <row r="10" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10">
@@ -9824,14 +9820,14 @@
       <c r="U10"/>
       <c r="V10" s="94"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="8"/>
+      <c r="X10" s="94"/>
       <c r="Y10"/>
-      <c r="Z10" s="96"/>
+      <c r="Z10" s="94"/>
       <c r="AA10" s="52"/>
       <c r="AB10" s="21"/>
-      <c r="AC10" s="96"/>
+      <c r="AC10" s="94"/>
       <c r="AD10" s="52"/>
-      <c r="AE10" s="126"/>
+      <c r="AE10" s="118"/>
     </row>
     <row r="11" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -9857,14 +9853,14 @@
       <c r="U11"/>
       <c r="V11" s="94"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="8"/>
+      <c r="X11" s="94"/>
       <c r="Y11"/>
-      <c r="Z11" s="96"/>
+      <c r="Z11" s="94"/>
       <c r="AA11" s="52"/>
       <c r="AB11" s="21"/>
-      <c r="AC11" s="96"/>
+      <c r="AC11" s="94"/>
       <c r="AD11" s="52"/>
-      <c r="AE11" s="126"/>
+      <c r="AE11" s="118"/>
     </row>
     <row r="12" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -9891,14 +9887,14 @@
       <c r="U12"/>
       <c r="V12" s="94"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="8"/>
+      <c r="X12" s="94"/>
       <c r="Y12"/>
-      <c r="Z12" s="96"/>
+      <c r="Z12" s="94"/>
       <c r="AA12" s="52"/>
       <c r="AB12" s="21"/>
-      <c r="AC12" s="96"/>
+      <c r="AC12" s="94"/>
       <c r="AD12" s="52"/>
-      <c r="AE12" s="126"/>
+      <c r="AE12" s="118"/>
     </row>
     <row r="13" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -9925,14 +9921,14 @@
       <c r="U13"/>
       <c r="V13" s="94"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
+      <c r="X13" s="94"/>
       <c r="Y13"/>
-      <c r="Z13" s="96"/>
+      <c r="Z13" s="94"/>
       <c r="AA13" s="52"/>
       <c r="AB13" s="21"/>
-      <c r="AC13" s="96"/>
+      <c r="AC13" s="94"/>
       <c r="AD13" s="52"/>
-      <c r="AE13" s="126"/>
+      <c r="AE13" s="118"/>
     </row>
     <row r="14" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -9958,14 +9954,14 @@
       <c r="U14"/>
       <c r="V14" s="94"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="8"/>
+      <c r="X14" s="94"/>
       <c r="Y14"/>
-      <c r="Z14" s="96"/>
+      <c r="Z14" s="94"/>
       <c r="AA14" s="52"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="96"/>
+      <c r="AC14" s="94"/>
       <c r="AD14" s="52"/>
-      <c r="AE14" s="126"/>
+      <c r="AE14" s="118"/>
     </row>
     <row r="15" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -9991,14 +9987,14 @@
       <c r="U15"/>
       <c r="V15" s="94"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="8"/>
+      <c r="X15" s="94"/>
       <c r="Y15"/>
-      <c r="Z15" s="96"/>
+      <c r="Z15" s="94"/>
       <c r="AA15" s="52"/>
       <c r="AB15" s="21"/>
-      <c r="AC15" s="96"/>
+      <c r="AC15" s="94"/>
       <c r="AD15" s="52"/>
-      <c r="AE15" s="126"/>
+      <c r="AE15" s="118"/>
     </row>
     <row r="16" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -10024,14 +10020,14 @@
       <c r="U16"/>
       <c r="V16" s="94"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="8"/>
+      <c r="X16" s="94"/>
       <c r="Y16"/>
-      <c r="Z16" s="96"/>
+      <c r="Z16" s="94"/>
       <c r="AA16" s="52"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="96"/>
+      <c r="AC16" s="94"/>
       <c r="AD16" s="52"/>
-      <c r="AE16" s="126"/>
+      <c r="AE16" s="118"/>
     </row>
     <row r="17" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17">
@@ -10057,14 +10053,14 @@
       <c r="U17"/>
       <c r="V17" s="94"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="8"/>
+      <c r="X17" s="94"/>
       <c r="Y17"/>
-      <c r="Z17" s="96"/>
+      <c r="Z17" s="94"/>
       <c r="AA17" s="52"/>
       <c r="AB17" s="21"/>
-      <c r="AC17" s="96"/>
+      <c r="AC17" s="94"/>
       <c r="AD17" s="52"/>
-      <c r="AE17" s="126"/>
+      <c r="AE17" s="118"/>
     </row>
     <row r="18" spans="1:31" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -10091,14 +10087,14 @@
       <c r="U18"/>
       <c r="V18" s="94"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="8"/>
+      <c r="X18" s="94"/>
       <c r="Y18"/>
-      <c r="Z18" s="96"/>
+      <c r="Z18" s="94"/>
       <c r="AA18" s="52"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="96"/>
+      <c r="AC18" s="94"/>
       <c r="AD18" s="52"/>
-      <c r="AE18" s="126"/>
+      <c r="AE18" s="118"/>
     </row>
     <row r="19" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -10124,14 +10120,14 @@
       <c r="U19"/>
       <c r="V19" s="94"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="8"/>
+      <c r="X19" s="94"/>
       <c r="Y19"/>
-      <c r="Z19" s="96"/>
+      <c r="Z19" s="94"/>
       <c r="AA19" s="52"/>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="96"/>
+      <c r="AC19" s="94"/>
       <c r="AD19" s="52"/>
-      <c r="AE19" s="126"/>
+      <c r="AE19" s="118"/>
     </row>
     <row r="20" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
@@ -10158,14 +10154,14 @@
       <c r="U20"/>
       <c r="V20" s="94"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="8"/>
+      <c r="X20" s="94"/>
       <c r="Y20"/>
-      <c r="Z20" s="96"/>
+      <c r="Z20" s="94"/>
       <c r="AA20" s="52"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="96"/>
+      <c r="AC20" s="94"/>
       <c r="AD20" s="52"/>
-      <c r="AE20" s="126"/>
+      <c r="AE20" s="118"/>
     </row>
     <row r="21" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
@@ -10192,14 +10188,14 @@
       <c r="U21"/>
       <c r="V21" s="94"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="8"/>
+      <c r="X21" s="94"/>
       <c r="Y21"/>
-      <c r="Z21" s="96"/>
+      <c r="Z21" s="94"/>
       <c r="AA21" s="52"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="96"/>
+      <c r="AC21" s="94"/>
       <c r="AD21" s="52"/>
-      <c r="AE21" s="126"/>
+      <c r="AE21" s="118"/>
     </row>
     <row r="22" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
@@ -10226,14 +10222,14 @@
       <c r="U22"/>
       <c r="V22" s="94"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="8"/>
+      <c r="X22" s="94"/>
       <c r="Y22"/>
-      <c r="Z22" s="96"/>
+      <c r="Z22" s="94"/>
       <c r="AA22" s="52"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="96"/>
+      <c r="AC22" s="94"/>
       <c r="AD22" s="52"/>
-      <c r="AE22" s="126"/>
+      <c r="AE22" s="118"/>
     </row>
     <row r="23" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23">
@@ -10259,14 +10255,14 @@
       <c r="U23"/>
       <c r="V23" s="94"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="8"/>
+      <c r="X23" s="94"/>
       <c r="Y23"/>
-      <c r="Z23" s="96"/>
+      <c r="Z23" s="94"/>
       <c r="AA23" s="52"/>
       <c r="AB23" s="21"/>
-      <c r="AC23" s="96"/>
+      <c r="AC23" s="94"/>
       <c r="AD23" s="52"/>
-      <c r="AE23" s="126"/>
+      <c r="AE23" s="118"/>
     </row>
     <row r="24" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24">
@@ -10292,14 +10288,14 @@
       <c r="U24"/>
       <c r="V24" s="94"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="8"/>
+      <c r="X24" s="94"/>
       <c r="Y24"/>
-      <c r="Z24" s="96"/>
+      <c r="Z24" s="94"/>
       <c r="AA24" s="52"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="96"/>
+      <c r="AC24" s="94"/>
       <c r="AD24" s="52"/>
-      <c r="AE24" s="126"/>
+      <c r="AE24" s="118"/>
     </row>
     <row r="25" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
@@ -10326,14 +10322,14 @@
       <c r="U25"/>
       <c r="V25" s="94"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="8"/>
+      <c r="X25" s="94"/>
       <c r="Y25"/>
-      <c r="Z25" s="96"/>
+      <c r="Z25" s="94"/>
       <c r="AA25" s="52"/>
       <c r="AB25" s="21"/>
-      <c r="AC25" s="96"/>
+      <c r="AC25" s="94"/>
       <c r="AD25" s="52"/>
-      <c r="AE25" s="126"/>
+      <c r="AE25" s="118"/>
     </row>
     <row r="26" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26">
@@ -10359,14 +10355,14 @@
       <c r="U26"/>
       <c r="V26" s="94"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="8"/>
+      <c r="X26" s="94"/>
       <c r="Y26"/>
-      <c r="Z26" s="96"/>
+      <c r="Z26" s="94"/>
       <c r="AA26" s="52"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="96"/>
+      <c r="AC26" s="94"/>
       <c r="AD26" s="52"/>
-      <c r="AE26" s="126"/>
+      <c r="AE26" s="118"/>
     </row>
     <row r="27" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27">
@@ -10392,14 +10388,14 @@
       <c r="U27"/>
       <c r="V27" s="94"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="8"/>
+      <c r="X27" s="94"/>
       <c r="Y27"/>
-      <c r="Z27" s="96"/>
+      <c r="Z27" s="94"/>
       <c r="AA27" s="52"/>
       <c r="AB27" s="21"/>
-      <c r="AC27" s="96"/>
+      <c r="AC27" s="94"/>
       <c r="AD27" s="52"/>
-      <c r="AE27" s="126"/>
+      <c r="AE27" s="118"/>
     </row>
     <row r="28" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28">
@@ -10425,14 +10421,14 @@
       <c r="U28"/>
       <c r="V28" s="94"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="8"/>
+      <c r="X28" s="94"/>
       <c r="Y28"/>
-      <c r="Z28" s="96"/>
+      <c r="Z28" s="94"/>
       <c r="AA28" s="52"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="96"/>
+      <c r="AC28" s="94"/>
       <c r="AD28" s="52"/>
-      <c r="AE28" s="126"/>
+      <c r="AE28" s="118"/>
     </row>
     <row r="29" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29">
@@ -10458,14 +10454,14 @@
       <c r="U29"/>
       <c r="V29" s="94"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="8"/>
+      <c r="X29" s="94"/>
       <c r="Y29"/>
-      <c r="Z29" s="96"/>
+      <c r="Z29" s="94"/>
       <c r="AA29" s="52"/>
       <c r="AB29" s="21"/>
-      <c r="AC29" s="96"/>
+      <c r="AC29" s="94"/>
       <c r="AD29" s="52"/>
-      <c r="AE29" s="126"/>
+      <c r="AE29" s="118"/>
     </row>
     <row r="30" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30">
@@ -10477,7 +10473,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="97"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30"/>
@@ -10491,12 +10487,12 @@
       <c r="U30"/>
       <c r="V30" s="94"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="8"/>
+      <c r="X30" s="94"/>
       <c r="Y30" s="48"/>
-      <c r="Z30" s="96"/>
+      <c r="Z30" s="94"/>
       <c r="AA30" s="52"/>
       <c r="AB30" s="52"/>
-      <c r="AC30" s="96"/>
+      <c r="AC30" s="94"/>
       <c r="AD30" s="52"/>
       <c r="AE30" s="52"/>
     </row>
@@ -10510,12 +10506,12 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="97"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="104"/>
+      <c r="N31" s="102"/>
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -10524,12 +10520,12 @@
       <c r="U31"/>
       <c r="V31" s="94"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="8"/>
+      <c r="X31" s="94"/>
       <c r="Y31" s="48"/>
-      <c r="Z31" s="96"/>
+      <c r="Z31" s="94"/>
       <c r="AA31" s="52"/>
       <c r="AB31" s="52"/>
-      <c r="AC31" s="96"/>
+      <c r="AC31" s="94"/>
       <c r="AD31" s="52"/>
       <c r="AE31" s="52"/>
     </row>
@@ -10543,12 +10539,12 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="104"/>
+      <c r="N32" s="102"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -10557,12 +10553,12 @@
       <c r="U32"/>
       <c r="V32" s="94"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="8"/>
+      <c r="X32" s="94"/>
       <c r="Y32" s="48"/>
-      <c r="Z32" s="96"/>
+      <c r="Z32" s="94"/>
       <c r="AA32" s="52"/>
       <c r="AB32" s="52"/>
-      <c r="AC32" s="96"/>
+      <c r="AC32" s="94"/>
       <c r="AD32" s="52"/>
       <c r="AE32" s="52"/>
     </row>
@@ -10576,12 +10572,12 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="97"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="104"/>
+      <c r="N33" s="102"/>
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -10590,12 +10586,12 @@
       <c r="U33"/>
       <c r="V33" s="94"/>
       <c r="W33" s="7"/>
-      <c r="X33" s="8"/>
+      <c r="X33" s="94"/>
       <c r="Y33" s="48"/>
-      <c r="Z33" s="96"/>
+      <c r="Z33" s="94"/>
       <c r="AA33" s="52"/>
       <c r="AB33" s="52"/>
-      <c r="AC33" s="96"/>
+      <c r="AC33" s="94"/>
       <c r="AD33" s="52"/>
       <c r="AE33" s="52"/>
     </row>
@@ -10614,7 +10610,7 @@
       <c r="K34" s="7"/>
       <c r="L34"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="104"/>
+      <c r="N34" s="102"/>
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -10623,12 +10619,12 @@
       <c r="U34"/>
       <c r="V34" s="94"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="8"/>
+      <c r="X34" s="94"/>
       <c r="Y34" s="48"/>
-      <c r="Z34" s="96"/>
+      <c r="Z34" s="94"/>
       <c r="AA34" s="52"/>
       <c r="AB34" s="52"/>
-      <c r="AC34" s="96"/>
+      <c r="AC34" s="94"/>
       <c r="AD34" s="52"/>
       <c r="AE34" s="52"/>
     </row>
@@ -10647,7 +10643,7 @@
       <c r="K35" s="7"/>
       <c r="L35"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="104"/>
+      <c r="N35" s="102"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
@@ -10656,12 +10652,12 @@
       <c r="U35"/>
       <c r="V35" s="94"/>
       <c r="W35" s="7"/>
-      <c r="X35" s="8"/>
+      <c r="X35" s="94"/>
       <c r="Y35" s="48"/>
-      <c r="Z35" s="96"/>
+      <c r="Z35" s="94"/>
       <c r="AA35" s="52"/>
       <c r="AB35" s="52"/>
-      <c r="AC35" s="96"/>
+      <c r="AC35" s="94"/>
       <c r="AD35" s="52"/>
       <c r="AE35" s="52"/>
     </row>
@@ -10680,7 +10676,7 @@
       <c r="K36" s="7"/>
       <c r="L36"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="104"/>
+      <c r="N36" s="102"/>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
@@ -10689,12 +10685,12 @@
       <c r="U36"/>
       <c r="V36" s="94"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="8"/>
+      <c r="X36" s="94"/>
       <c r="Y36" s="48"/>
-      <c r="Z36" s="96"/>
+      <c r="Z36" s="94"/>
       <c r="AA36" s="52"/>
       <c r="AB36" s="52"/>
-      <c r="AC36" s="96"/>
+      <c r="AC36" s="94"/>
       <c r="AD36" s="52"/>
       <c r="AE36" s="52"/>
     </row>
@@ -10713,7 +10709,7 @@
       <c r="K37" s="7"/>
       <c r="L37"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="104"/>
+      <c r="N37" s="102"/>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -10722,12 +10718,12 @@
       <c r="U37"/>
       <c r="V37" s="94"/>
       <c r="W37" s="7"/>
-      <c r="X37" s="8"/>
+      <c r="X37" s="94"/>
       <c r="Y37" s="48"/>
-      <c r="Z37" s="96"/>
+      <c r="Z37" s="94"/>
       <c r="AA37" s="52"/>
       <c r="AB37" s="52"/>
-      <c r="AC37" s="96"/>
+      <c r="AC37" s="94"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
     </row>
@@ -10746,7 +10742,7 @@
       <c r="K38" s="7"/>
       <c r="L38"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="104"/>
+      <c r="N38" s="102"/>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -10755,12 +10751,12 @@
       <c r="U38"/>
       <c r="V38" s="94"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="8"/>
+      <c r="X38" s="94"/>
       <c r="Y38" s="48"/>
-      <c r="Z38" s="96"/>
+      <c r="Z38" s="94"/>
       <c r="AA38" s="52"/>
       <c r="AB38" s="52"/>
-      <c r="AC38" s="96"/>
+      <c r="AC38" s="94"/>
       <c r="AD38" s="52"/>
       <c r="AE38" s="52"/>
     </row>
@@ -10779,7 +10775,7 @@
       <c r="K39" s="7"/>
       <c r="L39"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="104"/>
+      <c r="N39" s="102"/>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -10788,12 +10784,12 @@
       <c r="U39"/>
       <c r="V39" s="94"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="8"/>
+      <c r="X39" s="94"/>
       <c r="Y39" s="48"/>
-      <c r="Z39" s="96"/>
+      <c r="Z39" s="94"/>
       <c r="AA39" s="52"/>
       <c r="AB39" s="52"/>
-      <c r="AC39" s="96"/>
+      <c r="AC39" s="94"/>
       <c r="AD39" s="52"/>
       <c r="AE39" s="52"/>
     </row>
@@ -10812,7 +10808,7 @@
       <c r="K40" s="7"/>
       <c r="L40"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="104"/>
+      <c r="N40" s="102"/>
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -10821,12 +10817,12 @@
       <c r="U40"/>
       <c r="V40" s="94"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="8"/>
+      <c r="X40" s="94"/>
       <c r="Y40" s="48"/>
-      <c r="Z40" s="96"/>
+      <c r="Z40" s="94"/>
       <c r="AA40" s="52"/>
       <c r="AB40" s="52"/>
-      <c r="AC40" s="96"/>
+      <c r="AC40" s="94"/>
       <c r="AD40" s="52"/>
       <c r="AE40" s="52"/>
     </row>
@@ -10845,7 +10841,7 @@
       <c r="K41" s="7"/>
       <c r="L41"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="104"/>
+      <c r="N41" s="102"/>
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -10854,12 +10850,12 @@
       <c r="U41"/>
       <c r="V41" s="94"/>
       <c r="W41" s="7"/>
-      <c r="X41" s="8"/>
+      <c r="X41" s="94"/>
       <c r="Y41" s="48"/>
-      <c r="Z41" s="96"/>
+      <c r="Z41" s="94"/>
       <c r="AA41" s="52"/>
       <c r="AB41" s="52"/>
-      <c r="AC41" s="96"/>
+      <c r="AC41" s="94"/>
       <c r="AD41" s="52"/>
       <c r="AE41" s="52"/>
     </row>
@@ -10878,7 +10874,7 @@
       <c r="K42" s="7"/>
       <c r="L42"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="104"/>
+      <c r="N42" s="102"/>
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
@@ -10887,12 +10883,12 @@
       <c r="U42"/>
       <c r="V42" s="94"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="8"/>
+      <c r="X42" s="94"/>
       <c r="Y42" s="48"/>
-      <c r="Z42" s="96"/>
+      <c r="Z42" s="94"/>
       <c r="AA42" s="52"/>
       <c r="AB42" s="52"/>
-      <c r="AC42" s="96"/>
+      <c r="AC42" s="94"/>
       <c r="AD42" s="52"/>
       <c r="AE42" s="52"/>
     </row>
@@ -10911,7 +10907,7 @@
       <c r="K43" s="7"/>
       <c r="L43"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="104"/>
+      <c r="N43" s="102"/>
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
@@ -10920,12 +10916,12 @@
       <c r="U43"/>
       <c r="V43" s="94"/>
       <c r="W43" s="7"/>
-      <c r="X43" s="8"/>
+      <c r="X43" s="94"/>
       <c r="Y43" s="48"/>
-      <c r="Z43" s="96"/>
+      <c r="Z43" s="94"/>
       <c r="AA43" s="52"/>
       <c r="AB43" s="52"/>
-      <c r="AC43" s="96"/>
+      <c r="AC43" s="94"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
     </row>
@@ -10934,18 +10930,18 @@
       <c r="I44" s="35"/>
       <c r="L44" s="8"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="96"/>
+      <c r="N44" s="102"/>
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="U44" s="103"/>
       <c r="V44" s="94"/>
-      <c r="X44" s="8"/>
+      <c r="X44" s="94"/>
       <c r="Y44" s="49"/>
-      <c r="Z44" s="96"/>
+      <c r="Z44" s="94"/>
       <c r="AA44" s="52"/>
       <c r="AB44" s="52"/>
-      <c r="AC44" s="96"/>
+      <c r="AC44" s="94"/>
       <c r="AD44" s="52"/>
       <c r="AE44" s="52"/>
     </row>
@@ -10954,18 +10950,18 @@
       <c r="I45" s="35"/>
       <c r="L45" s="8"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="96"/>
+      <c r="N45" s="102"/>
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="U45" s="103"/>
       <c r="V45" s="94"/>
-      <c r="X45" s="8"/>
+      <c r="X45" s="94"/>
       <c r="Y45" s="49"/>
-      <c r="Z45" s="96"/>
+      <c r="Z45" s="94"/>
       <c r="AA45" s="52"/>
       <c r="AB45" s="52"/>
-      <c r="AC45" s="96"/>
+      <c r="AC45" s="94"/>
       <c r="AD45" s="52"/>
       <c r="AE45" s="52"/>
     </row>
@@ -10974,7 +10970,7 @@
       <c r="I46" s="35"/>
       <c r="L46" s="8"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="96"/>
+      <c r="N46" s="102"/>
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
@@ -10994,7 +10990,7 @@
       <c r="I47" s="35"/>
       <c r="L47" s="8"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="96"/>
+      <c r="N47" s="102"/>
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
@@ -11013,7 +11009,7 @@
       <c r="I48" s="35"/>
       <c r="L48" s="8"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="96"/>
+      <c r="N48" s="102"/>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -11032,7 +11028,7 @@
       <c r="I49" s="35"/>
       <c r="L49" s="8"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="96"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="7"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
@@ -11050,11 +11046,11 @@
       <c r="I50" s="35"/>
       <c r="L50" s="8"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="96"/>
+      <c r="N50" s="102"/>
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
-      <c r="U50" s="105"/>
+      <c r="U50" s="104"/>
       <c r="V50" s="94"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="49"/>
@@ -11068,12 +11064,12 @@
       <c r="I51" s="35"/>
       <c r="L51" s="8"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="96"/>
+      <c r="N51" s="102"/>
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
-      <c r="U51" s="105"/>
-      <c r="V51" s="95"/>
+      <c r="U51" s="104"/>
+      <c r="V51" s="94"/>
       <c r="X51" s="8"/>
       <c r="Y51" s="49"/>
       <c r="Z51" s="96"/>
@@ -11086,7 +11082,7 @@
       <c r="I52" s="35"/>
       <c r="L52" s="8"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="96"/>
+      <c r="N52" s="102"/>
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
@@ -11104,7 +11100,7 @@
       <c r="I53" s="35"/>
       <c r="L53" s="8"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="96"/>
+      <c r="N53" s="102"/>
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -11122,7 +11118,7 @@
       <c r="I54" s="35"/>
       <c r="L54" s="8"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="96"/>
+      <c r="N54" s="102"/>
       <c r="O54" s="7"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -11140,7 +11136,7 @@
       <c r="I55" s="35"/>
       <c r="L55" s="8"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="96"/>
+      <c r="N55" s="102"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
@@ -11158,7 +11154,7 @@
       <c r="I56" s="35"/>
       <c r="L56" s="8"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="96"/>
+      <c r="N56" s="102"/>
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
@@ -11176,7 +11172,7 @@
       <c r="I57" s="35"/>
       <c r="L57" s="8"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="96"/>
+      <c r="N57" s="102"/>
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
@@ -11194,7 +11190,7 @@
       <c r="I58" s="35"/>
       <c r="L58" s="8"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="96"/>
+      <c r="N58" s="102"/>
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
@@ -11212,12 +11208,12 @@
       <c r="I59" s="35"/>
       <c r="L59" s="8"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="96"/>
+      <c r="N59" s="102"/>
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="U59" s="103"/>
-      <c r="V59" s="95"/>
+      <c r="V59" s="94"/>
       <c r="X59" s="8"/>
       <c r="Y59" s="49"/>
       <c r="Z59" s="96"/>
@@ -11230,7 +11226,7 @@
       <c r="I60" s="35"/>
       <c r="L60" s="8"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="96"/>
+      <c r="N60" s="102"/>
       <c r="O60" s="7"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
@@ -11248,7 +11244,7 @@
       <c r="I61" s="35"/>
       <c r="L61" s="8"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="96"/>
+      <c r="N61" s="102"/>
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
@@ -11344,7 +11340,7 @@
       <c r="N67" s="96"/>
       <c r="O67" s="7"/>
       <c r="U67" s="103"/>
-      <c r="V67" s="95"/>
+      <c r="V67" s="94"/>
       <c r="X67" s="8"/>
       <c r="Y67" s="49"/>
       <c r="Z67" s="96"/>
@@ -11464,7 +11460,7 @@
       <c r="N75" s="96"/>
       <c r="O75" s="7"/>
       <c r="U75" s="103"/>
-      <c r="V75" s="95"/>
+      <c r="V75" s="94"/>
       <c r="X75" s="8"/>
       <c r="Y75" s="49"/>
       <c r="Z75" s="96"/>
@@ -11590,7 +11586,7 @@
       <c r="N83" s="96"/>
       <c r="O83" s="7"/>
       <c r="U83" s="103"/>
-      <c r="V83" s="95"/>
+      <c r="V83" s="94"/>
       <c r="X83" s="8"/>
       <c r="Y83" s="49"/>
       <c r="Z83" s="96"/>
@@ -11755,7 +11751,7 @@
       <c r="M91" s="8"/>
       <c r="N91" s="96"/>
       <c r="U91" s="103"/>
-      <c r="V91" s="95"/>
+      <c r="V91" s="94"/>
       <c r="X91" s="8"/>
       <c r="Y91" s="49"/>
       <c r="Z91" s="96"/>
@@ -13046,7 +13042,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P29" xr:uid="{368A966B-0DD8-B54F-B593-88EA54499CE6}">
       <formula1>"Trizol, DirectZol"</formula1>
     </dataValidation>
@@ -13059,6 +13055,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{4E1384DF-1F81-0A4C-AF85-FE834BF9E9C4}">
       <formula1>"TRIzol, DirectZol"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="DD.MM.YY" sqref="I4:I33" xr:uid="{01EAD990-78B0-6D43-9B6B-65A21CF9D3D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="MM.DD.YY" sqref="N4:N61 V4:V97 X4:X45 Z4:Z45 AC4:AC45" xr:uid="{251BDF83-4F64-C74B-AD13-6F3989EA1E2C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -13080,8 +13078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25A128A-CE78-D14F-B4DE-F0406C9D1290}">
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13297,29 +13295,29 @@
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="121" t="s">
         <v>420</v>
       </c>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="129" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="121" t="s">
         <v>421</v>
       </c>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="129" t="s">
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
     </row>
     <row r="9" spans="1:28" s="84" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="76" t="s">
@@ -13367,7 +13365,7 @@
       <c r="O9" s="87" t="s">
         <v>382</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="P9" s="105" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="81" t="s">
@@ -13443,26 +13441,26 @@
       </c>
       <c r="N10" s="4"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="107" t="e">
+      <c r="Q10" s="123" t="e">
         <f>200/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="10" t="e">
+      <c r="R10" s="124" t="e">
         <f>20-Q10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="10" t="e">
+      <c r="S10" s="124" t="e">
         <f>IF(R10&gt;0,"1.0",10/P10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="125"/>
+      <c r="T10" s="117"/>
       <c r="U10" t="e">
         <f>VLOOKUP(B4,Induction!Z4:AB4,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Y10" s="51"/>
       <c r="Z10" s="11"/>
-      <c r="AB10" s="124"/>
+      <c r="AB10" s="116"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -13508,24 +13506,24 @@
         <v>#N/A</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="116" t="e">
+      <c r="P11" s="110"/>
+      <c r="Q11" s="123" t="e">
         <f t="shared" ref="Q11:Q29" si="2">200/P11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="115" t="e">
+      <c r="R11" s="124" t="e">
         <f t="shared" ref="R11:R29" si="3">20-Q11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="117" t="e">
+      <c r="S11" s="125" t="e">
         <f t="shared" ref="S11:S29" si="4">IF(R11&gt;0,"1.0",10/P11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="Y11" s="119"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="Y11" s="112"/>
       <c r="Z11" s="11"/>
-      <c r="AB11" s="124"/>
+      <c r="AB11" s="116"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -13571,25 +13569,25 @@
         <v>#N/A</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="116" t="e">
+      <c r="P12" s="113"/>
+      <c r="Q12" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="115" t="e">
+      <c r="R12" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="117" t="e">
+      <c r="S12" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="Y12" s="119"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="Y12" s="112"/>
       <c r="Z12" s="42"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="124"/>
+      <c r="AB12" s="116"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -13635,25 +13633,25 @@
         <v>#N/A</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="116" t="e">
+      <c r="P13" s="113"/>
+      <c r="Q13" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="115" t="e">
+      <c r="R13" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="117" t="e">
+      <c r="S13" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="Y13" s="119"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="Y13" s="112"/>
       <c r="Z13" s="42"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="124"/>
+      <c r="AB13" s="116"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -13699,25 +13697,25 @@
         <v>#N/A</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="116" t="e">
+      <c r="P14" s="113"/>
+      <c r="Q14" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="115" t="e">
+      <c r="R14" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="117" t="e">
+      <c r="S14" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="Y14" s="119"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="Y14" s="112"/>
       <c r="Z14" s="42"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="124"/>
+      <c r="AB14" s="116"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -13763,25 +13761,25 @@
         <v>#N/A</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="116" t="e">
+      <c r="P15" s="113"/>
+      <c r="Q15" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="115" t="e">
+      <c r="R15" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" s="117" t="e">
+      <c r="S15" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="Y15" s="119"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="Y15" s="112"/>
       <c r="Z15" s="42"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="124"/>
+      <c r="AB15" s="116"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -13827,25 +13825,25 @@
         <v>#N/A</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="116" t="e">
+      <c r="P16" s="113"/>
+      <c r="Q16" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R16" s="115" t="e">
+      <c r="R16" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="117" t="e">
+      <c r="S16" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="Y16" s="119"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="Y16" s="112"/>
       <c r="Z16" s="42"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="124"/>
+      <c r="AB16" s="116"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -13891,25 +13889,25 @@
         <v>#N/A</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="116" t="e">
+      <c r="P17" s="113"/>
+      <c r="Q17" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="115" t="e">
+      <c r="R17" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="117" t="e">
+      <c r="S17" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="Y17" s="119"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="Y17" s="112"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="42"/>
-      <c r="AB17" s="124"/>
+      <c r="AB17" s="116"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -13955,25 +13953,25 @@
         <v>#N/A</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="116" t="e">
+      <c r="P18" s="113"/>
+      <c r="Q18" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="115" t="e">
+      <c r="R18" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="117" t="e">
+      <c r="S18" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="Y18" s="119"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="Y18" s="112"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="42"/>
-      <c r="AB18" s="124"/>
+      <c r="AB18" s="116"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -14019,25 +14017,25 @@
         <v>#N/A</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="116" t="e">
+      <c r="P19" s="113"/>
+      <c r="Q19" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" s="115" t="e">
+      <c r="R19" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="117" t="e">
+      <c r="S19" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="Y19" s="119"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="Y19" s="112"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="42"/>
-      <c r="AB19" s="124"/>
+      <c r="AB19" s="116"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -14083,25 +14081,25 @@
         <v>#N/A</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="116" t="e">
+      <c r="P20" s="113"/>
+      <c r="Q20" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="115" t="e">
+      <c r="R20" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="117" t="e">
+      <c r="S20" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="Y20" s="119"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="Y20" s="112"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="124"/>
+      <c r="AB20" s="116"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -14147,25 +14145,25 @@
         <v>#N/A</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116" t="e">
+      <c r="P21" s="110"/>
+      <c r="Q21" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="115" t="e">
+      <c r="R21" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="117" t="e">
+      <c r="S21" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="Y21" s="119"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="Y21" s="112"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="42"/>
-      <c r="AB21" s="124"/>
+      <c r="AB21" s="116"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -14211,25 +14209,25 @@
         <v>#N/A</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="116" t="e">
+      <c r="P22" s="110"/>
+      <c r="Q22" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="115" t="e">
+      <c r="R22" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="117" t="e">
+      <c r="S22" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="Y22" s="119"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="Y22" s="112"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="42"/>
-      <c r="AB22" s="124"/>
+      <c r="AB22" s="116"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -14275,25 +14273,25 @@
         <v>#N/A</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="116" t="e">
+      <c r="P23" s="110"/>
+      <c r="Q23" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="115" t="e">
+      <c r="R23" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="117" t="e">
+      <c r="S23" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="Y23" s="119"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="Y23" s="112"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="42"/>
-      <c r="AB23" s="124"/>
+      <c r="AB23" s="116"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -14339,25 +14337,25 @@
         <v>#N/A</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="116" t="e">
+      <c r="P24" s="113"/>
+      <c r="Q24" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="115" t="e">
+      <c r="R24" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="117" t="e">
+      <c r="S24" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="Y24" s="119"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="Y24" s="112"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="42"/>
-      <c r="AB24" s="124"/>
+      <c r="AB24" s="116"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -14403,25 +14401,25 @@
         <v>#N/A</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="116" t="e">
+      <c r="P25" s="113"/>
+      <c r="Q25" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="115" t="e">
+      <c r="R25" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="117" t="e">
+      <c r="S25" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="Y25" s="119"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="Y25" s="112"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="42"/>
-      <c r="AB25" s="124"/>
+      <c r="AB25" s="116"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -14467,25 +14465,25 @@
         <v>#N/A</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="116" t="e">
+      <c r="P26" s="113"/>
+      <c r="Q26" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="115" t="e">
+      <c r="R26" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="117" t="e">
+      <c r="S26" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="Y26" s="119"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="Y26" s="112"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="42"/>
-      <c r="AB26" s="124"/>
+      <c r="AB26" s="116"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -14531,25 +14529,25 @@
         <v>#N/A</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="116" t="e">
+      <c r="P27" s="113"/>
+      <c r="Q27" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="115" t="e">
+      <c r="R27" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="117" t="e">
+      <c r="S27" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="Y27" s="119"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="Y27" s="112"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="42"/>
-      <c r="AB27" s="124"/>
+      <c r="AB27" s="116"/>
     </row>
     <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -14598,25 +14596,25 @@
       <c r="M28"/>
       <c r="N28" s="4"/>
       <c r="O28"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="116" t="e">
+      <c r="P28" s="114"/>
+      <c r="Q28" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="115" t="e">
+      <c r="R28" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="117" t="e">
+      <c r="S28" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="Y28" s="119"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="Y28" s="112"/>
       <c r="Z28" s="44"/>
       <c r="AA28" s="45"/>
-      <c r="AB28" s="124"/>
+      <c r="AB28" s="116"/>
     </row>
     <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -14665,22 +14663,22 @@
       <c r="M29"/>
       <c r="N29" s="4"/>
       <c r="O29"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="116" t="e">
+      <c r="P29" s="114"/>
+      <c r="Q29" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="115" t="e">
+      <c r="R29" s="124" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="117" t="e">
+      <c r="S29" s="125" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="Y29" s="119"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="Y29" s="112"/>
       <c r="Z29" s="44"/>
       <c r="AA29" s="45"/>
     </row>
@@ -14732,19 +14730,19 @@
       <c r="N30" s="4"/>
       <c r="O30"/>
       <c r="P30" s="50"/>
-      <c r="Q30" s="107" t="e">
+      <c r="Q30" s="123" t="e">
         <f t="shared" ref="Q30:Q49" si="6">200/P30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="10" t="e">
+      <c r="R30" s="124" t="e">
         <f t="shared" ref="R30:R49" si="7">20-Q30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="10" t="e">
+      <c r="S30" s="124" t="e">
         <f t="shared" ref="S30:S49" si="8">IF(R30&gt;0,"1.0",10/P30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="125"/>
+      <c r="T30" s="117"/>
       <c r="U30"/>
       <c r="W30"/>
       <c r="X30"/>
@@ -14798,20 +14796,20 @@
       <c r="M31"/>
       <c r="N31" s="4"/>
       <c r="O31"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="111" t="e">
+      <c r="P31" s="108"/>
+      <c r="Q31" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="112" t="e">
+      <c r="R31" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="112" t="e">
+      <c r="S31" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="125"/>
+      <c r="T31" s="117"/>
       <c r="U31"/>
       <c r="W31"/>
       <c r="X31"/>
@@ -14865,20 +14863,20 @@
       <c r="M32"/>
       <c r="N32" s="4"/>
       <c r="O32"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="111" t="e">
+      <c r="P32" s="108"/>
+      <c r="Q32" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="112" t="e">
+      <c r="R32" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="112" t="e">
+      <c r="S32" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="125"/>
+      <c r="T32" s="117"/>
       <c r="U32"/>
       <c r="W32"/>
       <c r="X32"/>
@@ -14933,19 +14931,19 @@
       <c r="N33" s="4"/>
       <c r="O33"/>
       <c r="P33" s="50"/>
-      <c r="Q33" s="107" t="e">
+      <c r="Q33" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R33" s="10" t="e">
+      <c r="R33" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="123" t="e">
+      <c r="S33" s="128" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="125"/>
+      <c r="T33" s="117"/>
       <c r="U33"/>
       <c r="W33"/>
       <c r="X33"/>
@@ -15000,19 +14998,19 @@
       <c r="N34" s="4"/>
       <c r="O34"/>
       <c r="P34" s="50"/>
-      <c r="Q34" s="107" t="e">
+      <c r="Q34" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="10" t="e">
+      <c r="R34" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="10" t="e">
+      <c r="S34" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="125"/>
+      <c r="T34" s="117"/>
       <c r="U34"/>
       <c r="W34"/>
       <c r="X34"/>
@@ -15066,21 +15064,21 @@
       <c r="M35"/>
       <c r="N35" s="4"/>
       <c r="O35"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="116" t="e">
+      <c r="P35" s="115"/>
+      <c r="Q35" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="115" t="e">
+      <c r="R35" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="117" t="e">
+      <c r="S35" s="125" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Z35" s="44"/>
@@ -15139,21 +15137,21 @@
         <f>VLOOKUP(N36,'Index 2'!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="116" t="e">
+      <c r="P36" s="115"/>
+      <c r="Q36" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="115" t="e">
+      <c r="R36" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S36" s="117" t="e">
+      <c r="S36" s="125" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Z36" s="44"/>
@@ -15212,20 +15210,20 @@
         <f>VLOOKUP(N37,'Index 2'!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="111" t="e">
+      <c r="P37" s="108"/>
+      <c r="Q37" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="112" t="e">
+      <c r="R37" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S37" s="112" t="e">
+      <c r="S37" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="125"/>
+      <c r="T37" s="117"/>
       <c r="U37"/>
       <c r="W37"/>
       <c r="X37"/>
@@ -15286,19 +15284,19 @@
         <v>#N/A</v>
       </c>
       <c r="P38" s="50"/>
-      <c r="Q38" s="107" t="e">
+      <c r="Q38" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="10" t="e">
+      <c r="R38" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="10" t="e">
+      <c r="S38" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="125"/>
+      <c r="T38" s="117"/>
       <c r="U38"/>
       <c r="W38"/>
       <c r="X38"/>
@@ -15358,20 +15356,20 @@
         <f>VLOOKUP(N39,'Index 2'!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="111" t="e">
+      <c r="P39" s="108"/>
+      <c r="Q39" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="112" t="e">
+      <c r="R39" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="112" t="e">
+      <c r="S39" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="125"/>
+      <c r="T39" s="117"/>
       <c r="U39"/>
       <c r="W39"/>
       <c r="X39"/>
@@ -15431,20 +15429,20 @@
         <f>VLOOKUP(N40,'Index 2'!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="111" t="e">
+      <c r="P40" s="108"/>
+      <c r="Q40" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="112" t="e">
+      <c r="R40" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="112" t="e">
+      <c r="S40" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="125"/>
+      <c r="T40" s="117"/>
       <c r="U40"/>
       <c r="W40"/>
       <c r="X40"/>
@@ -15505,19 +15503,19 @@
         <v>#N/A</v>
       </c>
       <c r="P41" s="50"/>
-      <c r="Q41" s="107" t="e">
+      <c r="Q41" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="10" t="e">
+      <c r="R41" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="10" t="e">
+      <c r="S41" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="125"/>
+      <c r="T41" s="117"/>
       <c r="U41"/>
       <c r="W41"/>
       <c r="X41"/>
@@ -15578,19 +15576,19 @@
         <v>#N/A</v>
       </c>
       <c r="P42" s="50"/>
-      <c r="Q42" s="107" t="e">
+      <c r="Q42" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="10" t="e">
+      <c r="R42" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S42" s="10" t="e">
+      <c r="S42" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="125"/>
+      <c r="T42" s="117"/>
       <c r="U42"/>
       <c r="W42"/>
       <c r="X42"/>
@@ -15651,19 +15649,19 @@
         <v>#N/A</v>
       </c>
       <c r="P43" s="50"/>
-      <c r="Q43" s="107" t="e">
+      <c r="Q43" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="10" t="e">
+      <c r="R43" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="113" t="e">
+      <c r="S43" s="125" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="125"/>
+      <c r="T43" s="117"/>
       <c r="U43"/>
       <c r="W43"/>
       <c r="X43"/>
@@ -15723,20 +15721,20 @@
         <f>VLOOKUP(N44,'Index 2'!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="111" t="e">
+      <c r="P44" s="108"/>
+      <c r="Q44" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="112" t="e">
+      <c r="R44" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="112" t="e">
+      <c r="S44" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="125"/>
+      <c r="T44" s="117"/>
       <c r="U44"/>
       <c r="W44"/>
       <c r="X44"/>
@@ -15797,19 +15795,19 @@
         <v>#N/A</v>
       </c>
       <c r="P45" s="50"/>
-      <c r="Q45" s="107" t="e">
+      <c r="Q45" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="10" t="e">
+      <c r="R45" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S45" s="10" t="e">
+      <c r="S45" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="125"/>
+      <c r="T45" s="117"/>
       <c r="U45"/>
       <c r="W45"/>
       <c r="X45"/>
@@ -15870,19 +15868,19 @@
         <v>#N/A</v>
       </c>
       <c r="P46" s="50"/>
-      <c r="Q46" s="107" t="e">
+      <c r="Q46" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R46" s="10" t="e">
+      <c r="R46" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S46" s="113" t="e">
+      <c r="S46" s="125" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T46" s="125"/>
+      <c r="T46" s="117"/>
       <c r="U46"/>
       <c r="W46"/>
       <c r="X46"/>
@@ -15943,19 +15941,19 @@
         <v>#N/A</v>
       </c>
       <c r="P47" s="50"/>
-      <c r="Q47" s="107" t="e">
+      <c r="Q47" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="10" t="e">
+      <c r="R47" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S47" s="10" t="e">
+      <c r="S47" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="125"/>
+      <c r="T47" s="117"/>
       <c r="U47"/>
       <c r="W47"/>
       <c r="X47"/>
@@ -16015,20 +16013,20 @@
         <f>VLOOKUP(N48,'Index 2'!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="111" t="e">
+      <c r="P48" s="108"/>
+      <c r="Q48" s="126" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="112" t="e">
+      <c r="R48" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S48" s="112" t="e">
+      <c r="S48" s="127" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="125"/>
+      <c r="T48" s="117"/>
       <c r="U48"/>
       <c r="W48"/>
       <c r="X48"/>
@@ -16089,19 +16087,19 @@
         <v>#N/A</v>
       </c>
       <c r="P49" s="50"/>
-      <c r="Q49" s="107" t="e">
+      <c r="Q49" s="123" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="10" t="e">
+      <c r="R49" s="124" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="10" t="e">
+      <c r="S49" s="124" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="125"/>
+      <c r="T49" s="117"/>
       <c r="U49"/>
     </row>
     <row r="50" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -16155,7 +16153,7 @@
       <c r="B52" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="107" t="s">
         <v>464</v>
       </c>
       <c r="D52" s="2"/>
@@ -16192,8 +16190,8 @@
       <c r="A53" t="s">
         <v>455</v>
       </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -16215,8 +16213,8 @@
       <c r="A54" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -16229,7 +16227,7 @@
       <c r="A55" t="s">
         <v>457</v>
       </c>
-      <c r="B55" s="108"/>
+      <c r="B55" s="106"/>
       <c r="C55"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -16243,7 +16241,7 @@
       <c r="A56" t="s">
         <v>458</v>
       </c>
-      <c r="B56" s="108"/>
+      <c r="B56" s="106"/>
       <c r="C56"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>

--- a/PrepSheet_Autofill_Template_Update032520.xlsx
+++ b/PrepSheet_Autofill_Template_Update032520.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31175F6F-E443-7B48-8D4F-C105B63C1F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033767D1-1EB8-A34A-A4BB-A5FACDA66975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17640" windowHeight="18940" firstSheet="6" activeTab="8" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
+    <workbookView xWindow="7400" yWindow="5460" windowWidth="17640" windowHeight="18940" firstSheet="6" activeTab="11" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Objs.Directions" sheetId="17" r:id="rId1"/>
@@ -9149,8 +9149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4958B5-37FB-2944-8284-DDBDEBA5917C}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28031,8 +28031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415496FB-E57F-FD48-8E61-26AA35D33354}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30352,10 +30352,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L41" xr:uid="{32CF2FCB-B0EE-1B40-9C20-4609EF65F32F}">
-      <formula1>"E7420L"</formula1>
-    </dataValidation>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M41" xr:uid="{62EB33D3-F5A1-4843-8058-A14903CBC898}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
@@ -30365,7 +30362,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{DD9CC7CE-B21E-6B47-A9A0-924CFC7EECFB}">
       <formula1>"Index1_1, Index1_2, Index1_3, Index1_4, Index1_5, Index1_6, Index1_7, Index1_8, Index1_9, Index1_10, Index1_11, Index1_12, Index1_13, Index1_14, Index1_15, Index1_16, Index1_17, Index1_18, Index1_19, Index1_20, Index1_21, Index1_22, Index1_23, Index1_24, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{BBF153C6-3BF4-4043-A28C-D729AABB3E0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L41" xr:uid="{BBF153C6-3BF4-4043-A28C-D729AABB3E0E}">
       <formula1>"E7420L, SolexaPrep"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PrepSheet_Autofill_Template_Update032520.xlsx
+++ b/PrepSheet_Autofill_Template_Update032520.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033767D1-1EB8-A34A-A4BB-A5FACDA66975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44B6F80-969D-7849-AA8F-AA10ECC36927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="5460" windowWidth="17640" windowHeight="18940" firstSheet="6" activeTab="11" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
+    <workbookView xWindow="7400" yWindow="460" windowWidth="17640" windowHeight="18940" activeTab="6" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Objs.Directions" sheetId="17" r:id="rId1"/>
@@ -9149,7 +9149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4958B5-37FB-2944-8284-DDBDEBA5917C}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -23515,8 +23515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB832963-2F29-F34D-9B52-048A446EDD8F}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26059,7 +26059,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I41" xr:uid="{D5AB58AB-ED89-9E43-8573-41B3B561C60B}">
       <formula1>"E7420L"</formula1>
     </dataValidation>
@@ -26069,8 +26069,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H41" xr:uid="{F346031A-CF56-2C45-9868-80810296170D}">
       <formula1>"E7490L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J41" xr:uid="{5AF46E1E-D4D0-4C4D-A9CA-84AC40AD5910}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J41" xr:uid="{5AF46E1E-D4D0-4C4D-A9CA-84AC40AD5910}">
       <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{3C4F6157-34ED-3D47-9E58-1553D6024B06}">
+      <formula1>"True, False"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PrepSheet_Autofill_Template_Update032520.xlsx
+++ b/PrepSheet_Autofill_Template_Update032520.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44B6F80-969D-7849-AA8F-AA10ECC36927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F2408-1734-FE40-9C26-99B66D0E4D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="460" windowWidth="17640" windowHeight="18940" activeTab="6" xr2:uid="{87223161-21E3-D547-BEAF-2AFC325C2C31}"/>
   </bookViews>
@@ -35,18 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="510">
   <si>
     <t>Genomic #</t>
   </si>
@@ -1573,6 +1567,9 @@
   </si>
   <si>
     <t>PoolledSecondStrand</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2091,6 +2088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23515,7 +23513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB832963-2F29-F34D-9B52-048A446EDD8F}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -23587,8 +23585,8 @@
       <c r="I2" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J2" s="21" t="b">
-        <v>0</v>
+      <c r="J2" s="129" t="s">
+        <v>509</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>361</v>
@@ -23626,7 +23624,7 @@
       <c r="I3" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J3" s="21" t="b">
+      <c r="J3" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K3" s="21" t="s">
@@ -23665,7 +23663,7 @@
       <c r="I4" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J4" s="21" t="b">
+      <c r="J4" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="21" t="s">
@@ -23704,7 +23702,7 @@
       <c r="I5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J5" s="21" t="b">
+      <c r="J5" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="21" t="s">
@@ -23743,7 +23741,7 @@
       <c r="I6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J6" s="21" t="b">
+      <c r="J6" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="21" t="s">
@@ -23782,7 +23780,7 @@
       <c r="I7" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J7" s="21" t="b">
+      <c r="J7" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -23821,7 +23819,7 @@
       <c r="I8" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J8" s="21" t="b">
+      <c r="J8" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="21" t="s">
@@ -23860,7 +23858,7 @@
       <c r="I9" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J9" s="21" t="b">
+      <c r="J9" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="21" t="s">
@@ -23899,7 +23897,7 @@
       <c r="I10" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J10" s="21" t="b">
+      <c r="J10" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="21" t="s">
@@ -23938,7 +23936,7 @@
       <c r="I11" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J11" s="21" t="b">
+      <c r="J11" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="21" t="s">
@@ -23977,7 +23975,7 @@
       <c r="I12" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J12" s="21" t="b">
+      <c r="J12" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="21" t="s">
@@ -24016,7 +24014,7 @@
       <c r="I13" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J13" s="21" t="b">
+      <c r="J13" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="21" t="s">
@@ -24055,7 +24053,7 @@
       <c r="I14" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J14" s="21" t="b">
+      <c r="J14" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="21" t="s">
@@ -24094,7 +24092,7 @@
       <c r="I15" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J15" s="21" t="b">
+      <c r="J15" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="21" t="s">
@@ -24133,7 +24131,7 @@
       <c r="I16" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J16" s="21" t="b">
+      <c r="J16" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="21" t="s">
@@ -24172,7 +24170,7 @@
       <c r="I17" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J17" s="21" t="b">
+      <c r="J17" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="21" t="s">
@@ -24211,7 +24209,7 @@
       <c r="I18" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J18" s="21" t="b">
+      <c r="J18" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K18" s="21" t="s">
@@ -24250,7 +24248,7 @@
       <c r="I19" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J19" s="21" t="b">
+      <c r="J19" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="21" t="s">
@@ -24289,7 +24287,7 @@
       <c r="I20" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J20" s="21" t="b">
+      <c r="J20" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="21" t="s">
@@ -24328,7 +24326,7 @@
       <c r="I21" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J21" s="21" t="b">
+      <c r="J21" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K21" s="21" t="s">
@@ -24367,7 +24365,7 @@
       <c r="I22" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J22" s="21" t="b">
+      <c r="J22" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K22" s="21" t="s">
@@ -24406,7 +24404,7 @@
       <c r="I23" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J23" s="21" t="b">
+      <c r="J23" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="21" t="s">
@@ -24445,7 +24443,7 @@
       <c r="I24" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J24" s="21" t="b">
+      <c r="J24" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K24" s="21" t="s">
@@ -24484,7 +24482,7 @@
       <c r="I25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J25" s="21" t="b">
+      <c r="J25" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K25" s="21" t="s">
@@ -24523,7 +24521,7 @@
       <c r="I26" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J26" s="21" t="b">
+      <c r="J26" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K26" s="21" t="s">
@@ -24562,7 +24560,7 @@
       <c r="I27" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J27" s="21" t="b">
+      <c r="J27" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K27" s="21" t="s">
@@ -24601,7 +24599,7 @@
       <c r="I28" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J28" s="21" t="b">
+      <c r="J28" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K28" s="21" t="s">
@@ -24640,7 +24638,7 @@
       <c r="I29" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J29" s="21" t="b">
+      <c r="J29" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="21" t="s">
@@ -24679,7 +24677,7 @@
       <c r="I30" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J30" s="21" t="b">
+      <c r="J30" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K30" s="21" t="s">
@@ -24718,7 +24716,7 @@
       <c r="I31" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J31" s="21" t="b">
+      <c r="J31" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="21" t="s">
@@ -24757,7 +24755,7 @@
       <c r="I32" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J32" s="21" t="b">
+      <c r="J32" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K32" s="21" t="s">
@@ -24796,7 +24794,7 @@
       <c r="I33" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J33" s="21" t="b">
+      <c r="J33" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="21" t="s">
@@ -24835,7 +24833,7 @@
       <c r="I34" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J34" s="21" t="b">
+      <c r="J34" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="21" t="s">
@@ -24874,7 +24872,7 @@
       <c r="I35" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J35" s="21" t="b">
+      <c r="J35" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="21" t="s">
@@ -24913,7 +24911,7 @@
       <c r="I36" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J36" s="21" t="b">
+      <c r="J36" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="21" t="s">
@@ -24952,7 +24950,7 @@
       <c r="I37" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J37" s="21" t="b">
+      <c r="J37" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="21" t="s">
@@ -24991,7 +24989,7 @@
       <c r="I38" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J38" s="21" t="b">
+      <c r="J38" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="21" t="s">
@@ -25030,7 +25028,7 @@
       <c r="I39" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J39" s="21" t="b">
+      <c r="J39" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="21" t="s">
@@ -25069,7 +25067,7 @@
       <c r="I40" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J40" s="21" t="b">
+      <c r="J40" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="21" t="s">
@@ -25108,7 +25106,7 @@
       <c r="I41" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J41" s="21" t="b">
+      <c r="J41" s="129" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="21" t="s">
